--- a/data/trans_bre/P1422-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1422-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-0.8608977999876434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.09303247576924137</v>
+        <v>0.09303247576924133</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.7817504915428264</v>
@@ -627,7 +627,7 @@
         <v>-1</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4309992725947849</v>
+        <v>0.4309992725947845</v>
       </c>
     </row>
     <row r="5">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.14772457314466</v>
+        <v>-3.179557568173208</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.512700480603257</v>
+        <v>-2.53951635188213</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6182058892373892</v>
+        <v>-0.6365592804263462</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09667067957197624</v>
+        <v>0.06916164513917715</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.268084063623535</v>
+        <v>-0.268784689529398</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6257530411125707</v>
+        <v>0.6806123014871709</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -688,7 +688,7 @@
         <v>-1.23182664728153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.09919066147454116</v>
+        <v>-0.09919066147454089</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.5860601920939599</v>
@@ -697,7 +697,7 @@
         <v>-1</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1248848176850905</v>
+        <v>-0.1248848176850902</v>
       </c>
     </row>
     <row r="8">
@@ -708,20 +708,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.668415624120035</v>
+        <v>-3.501747919884532</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.488797816143731</v>
+        <v>-2.399522659834588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.276288542012036</v>
+        <v>-1.085506963814408</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.9320254903441164</v>
+        <v>-0.932819048083065</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.8580631527941158</v>
+        <v>-0.8318493544326466</v>
       </c>
     </row>
     <row r="9">
@@ -732,21 +732,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2771449625308877</v>
+        <v>0.2225401552494262</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.3999042669849334</v>
+        <v>-0.4085812609513628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8009701796481524</v>
+        <v>0.9408281870186972</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6479225106108567</v>
+        <v>0.5146689122448086</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="n">
-        <v>3.118121357388877</v>
-      </c>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -786,18 +784,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.540496640659943</v>
+        <v>-1.500181906218783</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.554042403070557</v>
+        <v>-1.543886593539092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.510020964426932</v>
+        <v>-3.787863673743334</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.8617790166855233</v>
+        <v>-0.8664808257432339</v>
       </c>
     </row>
     <row r="12">
@@ -808,18 +806,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.035038273561441</v>
+        <v>1.278471130906605</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5966753506152669</v>
+        <v>0.5907170791976575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.1497993255485688</v>
+        <v>-0.1526630190784617</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.04411938802575215</v>
+        <v>-0.008212233394948715</v>
       </c>
     </row>
     <row r="13">
@@ -860,18 +858,20 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.010542480056062</v>
+        <v>-0.9647297031130205</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.7324214570469477</v>
+        <v>-0.7860477253758836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.488351106590513</v>
+        <v>-1.529352348870567</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
-      <c r="G14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7333594455779304</v>
+        <v>-0.8101510384464153</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.569213226302478</v>
+        <v>1.580218648813816</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.826513055959472</v>
+        <v>2.738144397907153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.243425974700686</v>
+        <v>1.311989260724357</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
@@ -912,7 +912,7 @@
         <v>0.3563130896263766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.4064648888913521</v>
+        <v>-0.4064648888913523</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.1741934258827646</v>
@@ -921,7 +921,7 @@
         <v>0.2017100825160953</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.2289436171960922</v>
+        <v>-0.2289436171960923</v>
       </c>
     </row>
     <row r="17">
@@ -932,18 +932,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.251427287145129</v>
+        <v>-2.187542905358642</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.06097767350797</v>
+        <v>-2.052093741492301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.325298487200355</v>
+        <v>-2.282378590750138</v>
       </c>
       <c r="F17" s="6" t="inlineStr"/>
-      <c r="G17" s="6" t="inlineStr"/>
+      <c r="G17" s="6" t="n">
+        <v>-0.8193952183883133</v>
+      </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7648434207297178</v>
+        <v>-0.768907469272289</v>
       </c>
     </row>
     <row r="18">
@@ -954,18 +956,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.62932258983299</v>
+        <v>2.612558947375549</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.02163421237069</v>
+        <v>3.658054162140371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.128736022008923</v>
+        <v>1.030996841506202</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
-      <c r="G18" s="6" t="inlineStr"/>
+      <c r="G18" s="6" t="n">
+        <v>8.286541115874279</v>
+      </c>
       <c r="H18" s="6" t="n">
-        <v>1.611245586153369</v>
+        <v>1.602667919934369</v>
       </c>
     </row>
     <row r="19">
@@ -1006,18 +1010,18 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.6440760865633802</v>
+        <v>-0.6535432066491111</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.951988605954527</v>
+        <v>-1.931315670937849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.186283282707798</v>
+        <v>-1.893660937400157</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.6729723616596606</v>
+        <v>-0.6568926283814595</v>
       </c>
     </row>
     <row r="21">
@@ -1028,18 +1032,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.968335458177852</v>
+        <v>2.006564412494705</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.13491016831002</v>
+        <v>1.416334434552589</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>0.9798950446789674</v>
+        <v>1.178846872438632</v>
       </c>
     </row>
     <row r="22">
@@ -1060,7 +1064,7 @@
         <v>0.2569223623239821</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2592852184462721</v>
+        <v>0.2592852184462719</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>1.153488765048639</v>
@@ -1069,7 +1073,7 @@
         <v>0.5926660397393037</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2413334880693475</v>
+        <v>0.2413334880693473</v>
       </c>
     </row>
     <row r="23">
@@ -1080,18 +1084,18 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2677756393268771</v>
+        <v>-0.2799083771382323</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6442355329452621</v>
+        <v>-0.7012218122569341</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6670460896887825</v>
+        <v>-0.7963346856717519</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>-0.4626779345736369</v>
+        <v>-0.4923750975224087</v>
       </c>
     </row>
     <row r="24">
@@ -1102,18 +1106,18 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.210406494363979</v>
+        <v>1.234403821297161</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.154550803938256</v>
+        <v>1.161713974121504</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.247914890802661</v>
+        <v>1.220755299808938</v>
       </c>
       <c r="F24" s="6" t="inlineStr"/>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>2.415388085021366</v>
+        <v>2.254864147834781</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1138,7 @@
         <v>0.6078196297923326</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>-0.4755028857777649</v>
+        <v>-0.4755028857777647</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.5097732575454781</v>
@@ -1145,7 +1149,7 @@
         </is>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3539354530185625</v>
+        <v>-0.3539354530185624</v>
       </c>
     </row>
     <row r="26">
@@ -1156,20 +1160,20 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.359959806887023</v>
+        <v>-1.228478428618798</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1318127018548843</v>
+        <v>0.1319185320437235</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.533818904059604</v>
+        <v>-1.476991494656158</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>-0.7433259195692211</v>
+        <v>-0.7496913268661666</v>
       </c>
     </row>
     <row r="27">
@@ -1180,20 +1184,20 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2711528227183987</v>
+        <v>0.2768731946256819</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.602897544562179</v>
+        <v>1.509141612108954</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4231028920168711</v>
+        <v>0.4504302141333036</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.404119024340815</v>
+        <v>1.426932795002035</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>0.8468509738425368</v>
+        <v>0.6458197657314868</v>
       </c>
     </row>
     <row r="28">
@@ -1234,22 +1238,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.775754343064428</v>
+        <v>-0.7865680462755251</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4296981357045436</v>
+        <v>-0.4160037655181751</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.690500427814622</v>
+        <v>-0.6419779760005733</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.6028635768519219</v>
+        <v>-0.5932240924583104</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.5382417851677409</v>
+        <v>-0.5395327048307818</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.435911035456863</v>
+        <v>-0.4321013285504455</v>
       </c>
     </row>
     <row r="30">
@@ -1260,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.165073989841926</v>
+        <v>0.126271645574015</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3823749740376493</v>
+        <v>0.3523387955633164</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1705421401591196</v>
+        <v>0.2128002431743016</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.2521268638528452</v>
+        <v>0.1955916968152126</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9148364502013658</v>
+        <v>0.7850147940858968</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1845945724553292</v>
+        <v>0.2271891309076229</v>
       </c>
     </row>
     <row r="31">
